--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="melgan" sheetId="2" r:id="rId2"/>
     <sheet name="diffwave" sheetId="3" r:id="rId3"/>
+    <sheet name="tdi" sheetId="4" r:id="rId4"/>
+    <sheet name="hfa" sheetId="5" r:id="rId5"/>
+    <sheet name="rhg" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="214">
   <si>
     <t>epoch1</t>
   </si>
@@ -365,6 +368,309 @@
   </si>
   <si>
     <t>weighted avg       0.93      0.93      0.93      6835</t>
+  </si>
+  <si>
+    <t>87.8</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.91      0.88       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.96      0.92      0.93       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.91      0.95      0.93       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.98      0.99      0.98       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.99      0.92      0.95       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.85      0.84      0.84       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.97      0.97      0.97       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.91      0.96      0.93       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.85      0.86      0.86       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.93      0.94      0.93       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.95      0.95      0.95       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.97      0.89      0.93       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.96      0.97      0.96       249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.93      0.96      0.95       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.99      0.89      0.94       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.92      0.96      0.94       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.92      0.92      0.92       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.89      0.95      0.92       246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.95      0.83      0.88       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.83      0.88      0.85       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.94      0.91      0.92       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.83      0.92      0.87       272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.90      0.93      0.92       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.96      0.98      0.97       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.91      0.95      0.93       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.93      0.90      0.92       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.94      0.85      0.90       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          30       0.98      0.95      0.97       256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.92      6835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.93      0.93      0.93      6835</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.92      0.92      6835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.98      0.94      0.96       162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.86      0.89      0.88       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.96      0.93      0.94       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.88      0.94      0.91       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.97      0.96      0.96       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.92      0.98      0.95       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.92      0.76      0.83       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.95      0.98      0.96       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.93      0.91      0.92       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.94      0.81      0.87       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.96      0.90      0.93       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.91      0.96      0.94       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.91      0.94      0.93       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.99      0.95      0.97       249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.98      0.82      0.89       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.90      0.95      0.93       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.97      0.98      0.98       239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.97      0.93      0.95       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.80      0.91      0.85       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.90      0.95      0.92       246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.90      0.90      0.90       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.89      0.88      0.88       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.90      0.94      0.92       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.89      0.93      0.91       272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.96      0.88      0.92       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.98      0.97      0.97       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.82      0.96      0.88       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.94      0.91      0.92       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.78      0.96      0.86       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          30       0.98      0.92      0.95       256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.92      0.92      0.92      6835</t>
+  </si>
+  <si>
+    <t>weighted avg       0.92      0.92      0.92      6835</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>91.8</t>
+  </si>
+  <si>
+    <t>89.8</t>
+  </si>
+  <si>
+    <t>93.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.99      0.94      0.97       162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.91      0.87      0.89       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.98      0.94      0.96       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.98      0.95      0.96       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.99      0.96      0.98       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.95      0.98      0.96       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.89      0.89      0.89       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.98      0.97      0.97       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.87      0.96      0.91       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.87      0.91      0.89       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       1.00      0.95      0.98       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.91      0.98      0.94       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.98      0.88      0.93       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.97      0.94      0.95       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.98      0.93      0.95       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       1.00      0.95      0.97       239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.99      0.96      0.98       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.88      0.92      0.90       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.94      0.94      0.94       246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.88      0.92      0.90       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.92      0.87      0.89       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.96      0.94      0.95       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.90      0.97      0.93       272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.91      0.95      0.93       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.94      0.98      0.96       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.96      0.94      0.95       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.95      0.91      0.93       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.91      0.94      0.93       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          30       0.98      0.96      0.97       256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.94      6835</t>
+  </si>
+  <si>
+    <t>weighted avg       0.94      0.94      0.94      6835</t>
   </si>
 </sst>
 </file>
@@ -556,6 +862,153 @@
         <a:xfrm>
           <a:off x="0" y="8286750"/>
           <a:ext cx="7772400" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="7696200"/>
+          <a:ext cx="5232400" cy="5232400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8261350"/>
+          <a:ext cx="7772400" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7747000"/>
+          <a:ext cx="7169150" cy="7169150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,7 +1286,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -1475,4 +1928,643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="tdi" sheetId="4" r:id="rId4"/>
     <sheet name="hfa" sheetId="5" r:id="rId5"/>
     <sheet name="rhg" sheetId="6" r:id="rId6"/>
+    <sheet name="mutation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="241">
   <si>
     <t>epoch1</t>
   </si>
@@ -46,114 +47,9 @@
     <t xml:space="preserve">              precision    recall  f1-score   support</t>
   </si>
   <si>
-    <t xml:space="preserve">           0       0.95      0.93      0.94       162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           1       0.81      0.92      0.86       252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           2       0.90      0.92      0.91       165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           3       0.87      0.95      0.91       259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           4       0.97      0.95      0.96       150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           5       0.91      0.96      0.94       166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           6       0.90      0.79      0.84       251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           7       0.99      0.94      0.96       180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           8       0.98      0.89      0.93       267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           9       0.80      0.81      0.81       267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          10       0.94      0.94      0.94       250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          11       0.91      0.96      0.93       257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          12       0.97      0.89      0.92       158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          13       0.96      0.90      0.93       249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          14       0.99      0.93      0.96       253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          15       0.96      0.91      0.93       262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          16       0.86      0.97      0.91       239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          17       0.95      0.95      0.95       186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          18       0.79      0.95      0.86       259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          19       0.94      0.82      0.88       246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          20       0.87      0.87      0.87       253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          21       0.78      0.90      0.84       193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          22       0.95      0.88      0.92       264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          23       0.94      0.90      0.92       272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          24       0.79      0.96      0.87       248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          25       0.95      0.94      0.94       244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          27       0.92      0.92      0.92       180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          28       0.98      0.79      0.88       271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          29       0.93      0.84      0.88       176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          30       0.95      0.97      0.96       256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    accuracy                           0.91      6835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   macro avg       0.91      0.91      0.91      6835</t>
-  </si>
-  <si>
-    <t>weighted avg       0.91      0.91      0.91      6835</t>
-  </si>
-  <si>
-    <t>88.4</t>
-  </si>
-  <si>
     <t>91.2</t>
   </si>
   <si>
-    <t>90.7</t>
-  </si>
-  <si>
     <t>93.0</t>
   </si>
   <si>
@@ -671,6 +567,192 @@
   </si>
   <si>
     <t>weighted avg       0.94      0.94      0.94      6835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       1.00      0.94      0.97       162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.91      0.92      0.91       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.93      0.96      0.94       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.97      0.95       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.97      0.98      0.98       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.96      0.97      0.97       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.91      0.90      0.90       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.99      0.97      0.98       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.99      0.94      0.96       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.82      0.93      0.88       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.96      0.93      0.94       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.94      0.93      0.93       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.96      0.94      0.95       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.98      0.96      0.97       249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.96      0.97      0.97       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.98      0.90      0.94       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.96      0.97      0.96       239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.94      0.96      0.95       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.97      0.91      0.94       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.88      0.97      0.92       246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.97      0.90      0.93       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.95      0.95      0.95       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.88      0.97      0.92       272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.94      0.94      0.94       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.97      0.96      0.96       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          26       0.97      0.94      0.95       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.94      0.90      0.92       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.94      0.93      0.93       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.92      0.98      0.95       256</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>89.4</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>85.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.92      0.90       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.98      0.96      0.97       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.92      0.97      0.95       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.93      0.99      0.95       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.96      0.96      0.96       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.92      0.82      0.86       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.94      0.92      0.93       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.86      0.86      0.86       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.99      0.90      0.94       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.90      0.95      0.92       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       1.00      0.89      0.94       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.97      0.94      0.96       249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.96      0.94      0.95       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.97      0.94      0.95       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.95      0.96      0.95       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.96      0.86      0.90       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.87      0.96      0.92       246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.89      0.93      0.91       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.86      0.88      0.87       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.89      0.95      0.92       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.98      0.89      0.93       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.96      0.97      0.97       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.89      0.96      0.93       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.97      0.88      0.93       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.93      0.97      0.95       256</t>
+  </si>
+  <si>
+    <t>89.6</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>93.1</t>
   </si>
 </sst>
 </file>
@@ -733,17 +815,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -762,8 +844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7683500"/>
-          <a:ext cx="6908800" cy="6908800"/>
+          <a:off x="0" y="7550150"/>
+          <a:ext cx="7772400" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,6 +1091,55 @@
         <a:xfrm>
           <a:off x="0" y="7747000"/>
           <a:ext cx="7169150" cy="7169150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7461250"/>
+          <a:ext cx="5391150" cy="5391150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,15 +1414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1301,191 +1432,209 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1517,13 +1666,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1538,167 +1687,167 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1730,13 +1879,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1746,12 +1895,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1761,167 +1910,167 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1953,13 +2102,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1974,167 +2123,167 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2166,13 +2315,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2187,167 +2336,167 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -2379,13 +2528,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2400,167 +2549,375 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7190" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="hfa" sheetId="5" r:id="rId5"/>
     <sheet name="rhg" sheetId="6" r:id="rId6"/>
     <sheet name="mutation" sheetId="7" r:id="rId7"/>
+    <sheet name="crossover" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="274">
   <si>
     <t>epoch1</t>
   </si>
@@ -753,6 +754,105 @@
   </si>
   <si>
     <t>93.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.96      0.95       162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.89      0.92      0.90       252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.94      0.94      0.94       165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.93      0.95      0.94       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.91      0.99      0.95       150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.91      0.98      0.94       166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.89      0.87      0.88       251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.97      0.96      0.97       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.98      0.96      0.97       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.88      0.92      0.90       267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.97      0.95      0.96       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.98      0.95      0.96       257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.97      0.91      0.94       158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.90      0.96      0.93       249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.94      0.96      0.95       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.97      0.90      0.94       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.96      0.96      0.96       239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.99      0.96      0.97       186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.97      0.85      0.91       259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.86      0.92      0.89       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.90      0.87      0.88       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.95      0.96      0.96       264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.96      0.92      0.94       272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.98      0.90      0.94       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.80      1.00      0.89       244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          26       0.97      0.87      0.92       180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.94      0.91      0.92       271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          28       0.94      0.94      0.94       176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          29       0.98      0.96      0.97       256</t>
+  </si>
+  <si>
+    <t>weighted avg       0.94      0.93      0.93      6835</t>
+  </si>
+  <si>
+    <t>91.1</t>
+  </si>
+  <si>
+    <t>92.8</t>
+  </si>
+  <si>
+    <t>93.4</t>
   </si>
 </sst>
 </file>
@@ -1151,6 +1251,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7861300"/>
+          <a:ext cx="5930900" cy="5930900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2722,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
@@ -2924,4 +3073,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>